--- a/labwork2/Raisin_Dataset.xlsx
+++ b/labwork2/Raisin_Dataset.xlsx
@@ -107,7 +107,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -160,7 +160,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -507,7 +507,7 @@
     <col min="8" max="8" style="13" width="9.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
